--- a/DASHBOARD_main/data_user.xlsx
+++ b/DASHBOARD_main/data_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,19 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2345678990112444</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tiara</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DASHBOARD_main/data_user.xlsx
+++ b/DASHBOARD_main/data_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,32 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1245367800112234</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sinta Maharani</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9801234567819235</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dinda</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DASHBOARD_main/data_user.xlsx
+++ b/DASHBOARD_main/data_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,95 +449,27 @@
           <t>Nama</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1234567890123450</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BG1234XY</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3201234567890000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BG5678AB</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12345678900000</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tata</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
           <t>1234456278949542</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Nia</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2345678990112444</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tiara</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1245367800112234</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sinta Maharani</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>9801234567819235</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Dinda</t>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nia Rahmadani</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Akun_nia21</t>
         </is>
       </c>
     </row>

--- a/DASHBOARD_main/data_user.xlsx
+++ b/DASHBOARD_main/data_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,24 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1234456278949533</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rahma</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Akun_rahma21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DASHBOARD_main/data_user.xlsx
+++ b/DASHBOARD_main/data_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,24 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7868866666665555</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Siti Aminah</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Akun_siti21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
